--- a/SVM/results.xlsx
+++ b/SVM/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="86">
   <si>
     <t>Estable. No precisa cuidados especiales</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Dummy Classifier</t>
   </si>
   <si>
-    <t>SVM 'Linear'</t>
-  </si>
-  <si>
     <t>0.54878049</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>0.8465018157544358</t>
   </si>
   <si>
-    <t>class_weight = 'balanced'</t>
-  </si>
-  <si>
     <t>0.831865492684378</t>
   </si>
   <si>
@@ -246,6 +240,48 @@
   </si>
   <si>
     <t>0.697560975609756</t>
+  </si>
+  <si>
+    <t>0.35487823017453735</t>
+  </si>
+  <si>
+    <t>0.5695413995639288</t>
+  </si>
+  <si>
+    <t>0.41901191033329344</t>
+  </si>
+  <si>
+    <t>0.23897287433383035</t>
+  </si>
+  <si>
+    <t>0.9293822081460439</t>
+  </si>
+  <si>
+    <t>0.9390243902439025</t>
+  </si>
+  <si>
+    <t>0.7682001719615589</t>
+  </si>
+  <si>
+    <t>0.5905406631040876</t>
+  </si>
+  <si>
+    <t>0.975609756097561</t>
+  </si>
+  <si>
+    <t>0.7854833970026448</t>
+  </si>
+  <si>
+    <t>0.7024390243902439</t>
+  </si>
+  <si>
+    <t>SVM kernel='linear'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVM kernel='linear', class_weight='balanced' </t>
+  </si>
+  <si>
+    <t>SVM kernel='rbf', class_weight='balanced'</t>
   </si>
 </sst>
 </file>
@@ -762,17 +798,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.5" bestFit="1" customWidth="1"/>
@@ -781,7 +817,7 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="23"/>
       <c r="B1" s="24" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -798,12 +834,12 @@
       <c r="M1" s="25"/>
       <c r="N1" s="9"/>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>2</v>
@@ -865,22 +901,22 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -888,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -900,13 +936,13 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -918,414 +954,414 @@
         <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="K5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>25</v>
-      </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="K6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="L7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>48</v>
-      </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="G13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>58</v>
-      </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1341,7 +1377,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1364,11 +1400,9 @@
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>64</v>
-      </c>
+      <c r="A17" s="19"/>
       <c r="B17" s="7" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1386,7 +1420,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>2</v>
@@ -1431,11 +1465,11 @@
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1444,133 +1478,133 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1585,6 +1619,240 @@
       <c r="L30" s="3"/>
       <c r="M30" s="4"/>
     </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>

--- a/SVM/results.xlsx
+++ b/SVM/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="87">
   <si>
     <t>Estable. No precisa cuidados especiales</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>SVM kernel='rbf', class_weight='balanced'</t>
+  </si>
+  <si>
+    <t>SVM kernel='poly', class_weight='balanced'</t>
   </si>
 </sst>
 </file>
@@ -798,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1853,6 +1856,206 @@
       <c r="L46" s="3"/>
       <c r="M46" s="4"/>
     </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="19"/>
+      <c r="B49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="16"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="16"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="16"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="16"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="16"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="16"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="16"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="16"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="16"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="16"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>

--- a/SVM/results.xlsx
+++ b/SVM/results.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="87">
   <si>
     <t>Estable. No precisa cuidados especiales</t>
   </si>
@@ -460,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -487,6 +487,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,9 +818,12 @@
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="23"/>
       <c r="B1" s="24" t="s">
         <v>83</v>
@@ -840,7 +846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
@@ -881,7 +887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -922,7 +928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -966,7 +972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
@@ -1098,7 +1104,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>35</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>38</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>39</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>48</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>49</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>50</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>51</v>
       </c>
@@ -1383,11 +1389,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1401,8 +1407,12 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="7" t="s">
         <v>84</v>
@@ -1420,8 +1430,25 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P17" s="19"/>
+      <c r="Q17" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>20</v>
       </c>
@@ -1461,8 +1488,27 @@
       <c r="M18" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="26"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>0</v>
       </c>
@@ -1474,8 +1520,27 @@
       <c r="M19" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="26"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>1</v>
       </c>
@@ -1487,8 +1552,27 @@
       <c r="M20" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P20" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="26"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>19</v>
       </c>
@@ -1500,8 +1584,27 @@
       <c r="M21" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P21" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="26"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>25</v>
       </c>
@@ -1513,8 +1616,27 @@
       <c r="M22" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P22" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="26"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>30</v>
       </c>
@@ -1526,8 +1648,27 @@
       <c r="M23" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P23" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="26"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>35</v>
       </c>
@@ -1539,8 +1680,27 @@
       <c r="M24" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P24" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="26"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>38</v>
       </c>
@@ -1552,8 +1712,27 @@
       <c r="M25" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="26"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>39</v>
       </c>
@@ -1565,8 +1744,27 @@
       <c r="M26" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="26"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>48</v>
       </c>
@@ -1578,8 +1776,27 @@
       <c r="M27" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P27" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R27" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="26"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>49</v>
       </c>
@@ -1591,8 +1808,27 @@
       <c r="M28" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P28" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="26"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>50</v>
       </c>
@@ -1604,8 +1840,27 @@
       <c r="M29" s="17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P29" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="R29" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="26"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>51</v>
       </c>
@@ -1621,8 +1876,26 @@
       <c r="K30" s="2"/>
       <c r="L30" s="3"/>
       <c r="M30" s="4"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P30" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="26"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="T31" s="28"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>

--- a/SVM/results.xlsx
+++ b/SVM/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="96">
   <si>
     <t>Estable. No precisa cuidados especiales</t>
   </si>
@@ -285,6 +285,33 @@
   </si>
   <si>
     <t>SVM kernel='poly', class_weight='balanced'</t>
+  </si>
+  <si>
+    <t>0.8683075572388923</t>
+  </si>
+  <si>
+    <t>0.4190420217455187</t>
+  </si>
+  <si>
+    <t>0.7606744956338451</t>
+  </si>
+  <si>
+    <t>0.926972569591827</t>
+  </si>
+  <si>
+    <t>0.9268292682926829</t>
+  </si>
+  <si>
+    <t>0.9513327020820409</t>
+  </si>
+  <si>
+    <t>0.9635586610216839</t>
+  </si>
+  <si>
+    <t>0.9707317073170731</t>
+  </si>
+  <si>
+    <t>0.7121951219512196</t>
   </si>
 </sst>
 </file>
@@ -460,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -490,6 +517,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB62"/>
+  <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="E26" workbookViewId="0">
+      <selection activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1412,7 +1441,7 @@
       <c r="AA16" s="28"/>
       <c r="AB16" s="28"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="7" t="s">
         <v>84</v>
@@ -1448,7 +1477,7 @@
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>20</v>
       </c>
@@ -1508,7 +1537,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="26"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1569,7 @@
       <c r="AA19" s="9"/>
       <c r="AB19" s="26"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>1</v>
       </c>
@@ -1572,7 +1601,7 @@
       <c r="AA20" s="9"/>
       <c r="AB20" s="26"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>19</v>
       </c>
@@ -1604,7 +1633,7 @@
       <c r="AA21" s="9"/>
       <c r="AB21" s="26"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>25</v>
       </c>
@@ -1636,7 +1665,7 @@
       <c r="AA22" s="9"/>
       <c r="AB22" s="26"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>30</v>
       </c>
@@ -1668,7 +1697,7 @@
       <c r="AA23" s="9"/>
       <c r="AB23" s="26"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>35</v>
       </c>
@@ -1700,7 +1729,7 @@
       <c r="AA24" s="9"/>
       <c r="AB24" s="26"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>38</v>
       </c>
@@ -1732,7 +1761,7 @@
       <c r="AA25" s="9"/>
       <c r="AB25" s="26"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>39</v>
       </c>
@@ -1764,7 +1793,7 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="26"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>48</v>
       </c>
@@ -1796,7 +1825,7 @@
       <c r="AA27" s="9"/>
       <c r="AB27" s="26"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>49</v>
       </c>
@@ -1828,7 +1857,7 @@
       <c r="AA28" s="9"/>
       <c r="AB28" s="26"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>50</v>
       </c>
@@ -1860,7 +1889,7 @@
       <c r="AA29" s="9"/>
       <c r="AB29" s="26"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>51</v>
       </c>
@@ -1892,10 +1921,10 @@
       <c r="AA30" s="9"/>
       <c r="AB30" s="26"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="T31" s="28"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="T31" s="19"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -1908,8 +1937,16 @@
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="7" t="s">
         <v>85</v>
@@ -1927,8 +1964,26 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P33" s="19"/>
+      <c r="Q33" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="R33" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="28"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>20</v>
       </c>
@@ -1968,8 +2023,28 @@
       <c r="M34" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="28"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>0</v>
       </c>
@@ -1981,8 +2056,28 @@
       <c r="M35" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="R35" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="28"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
         <v>1</v>
       </c>
@@ -1994,8 +2089,28 @@
       <c r="M36" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P36" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R36" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="28"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>19</v>
       </c>
@@ -2007,8 +2122,28 @@
       <c r="M37" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P37" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="28"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>25</v>
       </c>
@@ -2020,8 +2155,27 @@
       <c r="M38" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P38" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="R38" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>30</v>
       </c>
@@ -2033,8 +2187,27 @@
       <c r="M39" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P39" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>35</v>
       </c>
@@ -2046,8 +2219,27 @@
       <c r="M40" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P40" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q40" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="R40" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>38</v>
       </c>
@@ -2059,8 +2251,27 @@
       <c r="M41" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P41" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q41" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="R41" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
         <v>39</v>
       </c>
@@ -2072,8 +2283,27 @@
       <c r="M42" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P42" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q42" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="R42" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>48</v>
       </c>
@@ -2085,8 +2315,27 @@
       <c r="M43" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P43" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="R43" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
         <v>49</v>
       </c>
@@ -2098,8 +2347,28 @@
       <c r="M44" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P44" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q44" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R44" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="28"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>50</v>
       </c>
@@ -2111,8 +2380,28 @@
       <c r="M45" s="17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P45" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q45" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="R45" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="28"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>51</v>
       </c>
@@ -2128,8 +2417,39 @@
       <c r="K46" s="2"/>
       <c r="L46" s="3"/>
       <c r="M46" s="4"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P46" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="28"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Q47" s="26"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="7" t="s">
         <v>86</v>
@@ -2147,8 +2467,15 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="8"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P49" s="19"/>
+      <c r="Q49" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="R49" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>20</v>
       </c>
@@ -2188,8 +2515,17 @@
       <c r="M50" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P50" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R50" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
         <v>0</v>
       </c>
@@ -2199,8 +2535,17 @@
       <c r="M51" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="R51" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
         <v>1</v>
       </c>
@@ -2212,8 +2557,17 @@
       <c r="M52" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P52" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R52" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
         <v>19</v>
       </c>
@@ -2223,8 +2577,17 @@
       <c r="M53" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P53" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q53" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="R53" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
         <v>25</v>
       </c>
@@ -2234,8 +2597,17 @@
       <c r="M54" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P54" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="R54" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
         <v>30</v>
       </c>
@@ -2245,8 +2617,17 @@
       <c r="M55" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P55" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q55" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="R55" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
         <v>35</v>
       </c>
@@ -2256,8 +2637,17 @@
       <c r="M56" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P56" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q56" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="R56" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
         <v>38</v>
       </c>
@@ -2267,8 +2657,17 @@
       <c r="M57" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P57" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q57" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="R57" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>39</v>
       </c>
@@ -2278,8 +2677,17 @@
       <c r="M58" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P58" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q58" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="R58" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>48</v>
       </c>
@@ -2289,8 +2697,17 @@
       <c r="M59" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P59" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q59" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="R59" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
         <v>49</v>
       </c>
@@ -2300,8 +2717,17 @@
       <c r="M60" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P60" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q60" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="R60" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
         <v>50</v>
       </c>
@@ -2311,8 +2737,17 @@
       <c r="M61" s="17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P61" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q61" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="R61" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
         <v>51</v>
       </c>
@@ -2328,6 +2763,11 @@
       <c r="K62" s="2"/>
       <c r="L62" s="3"/>
       <c r="M62" s="4"/>
+      <c r="P62" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/SVM/results.xlsx
+++ b/SVM/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="97">
   <si>
     <t>Estable. No precisa cuidados especiales</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>0.7121951219512196</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
@@ -835,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E26" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,7 +856,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="23"/>
+      <c r="A1" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
@@ -1442,7 +1447,9 @@
       <c r="AB16" s="28"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="B17" s="7" t="s">
         <v>84</v>
       </c>
@@ -1459,7 +1466,9 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
-      <c r="P17" s="19"/>
+      <c r="P17" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="Q17" s="27" t="s">
         <v>84</v>
       </c>
@@ -1947,7 +1956,9 @@
       <c r="AC32" s="28"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
+      <c r="A33" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="B33" s="7" t="s">
         <v>85</v>
       </c>
@@ -1964,7 +1975,9 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="8"/>
-      <c r="P33" s="19"/>
+      <c r="P33" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="Q33" s="27" t="s">
         <v>85</v>
       </c>
@@ -2450,7 +2463,9 @@
       <c r="AC47" s="28"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
+      <c r="A49" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="B49" s="7" t="s">
         <v>86</v>
       </c>
@@ -2467,7 +2482,9 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="8"/>
-      <c r="P49" s="19"/>
+      <c r="P49" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="Q49" s="27" t="s">
         <v>86</v>
       </c>
